--- a/lookup_tables/Info_Integrated.xlsx
+++ b/lookup_tables/Info_Integrated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="836" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1_bc_info" sheetId="3" r:id="rId1"/>
@@ -2797,6 +2797,205 @@
   </si>
   <si>
     <t>asplund.kristi@deq.state.or.us</t>
+  </si>
+  <si>
+    <t>impairments</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen, Temperature</t>
+  </si>
+  <si>
+    <t>Biological Criteria, Sedimentation, Temperature</t>
+  </si>
+  <si>
+    <t>Upper Klamath and Lost River Subbasin TMDL and WQMP</t>
+  </si>
+  <si>
+    <t>Algae, Dissolved Oxygen, pH, Bacteria (water contact recreation), Sedimentation, Temperature</t>
+  </si>
+  <si>
+    <t>pH, Dissolved Oxygen, Nutrients, Periphyton, Temperature</t>
+  </si>
+  <si>
+    <t>Clear Lake TMDL</t>
+  </si>
+  <si>
+    <t>Protection of high quality water, public water supply source</t>
+  </si>
+  <si>
+    <t>https://www.oregon.gov/deq/FilterDocs/ClearLakeTMDL.pdf</t>
+  </si>
+  <si>
+    <t>Algae, pH, Bacteria (water contact recreation), DDT/DDE, dieldrin, dioxin, PCBs, Dissolved Oxygen, Lead</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>Aesthetics and Algal Growth</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), Dissolved Oxygen, Temperature</t>
+  </si>
+  <si>
+    <t>pH, Sedimentation, Temperature</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), Temperature</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), Dissolved Oxygen, Chlorophyll a, pH, Temperature</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), DDT, dieldrin, chlordane, Iron, Nitrate, Temperature</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation and shellfish harvesting), Sedimentation, Temperature</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation and shellfish harvesting), Temperature</t>
+  </si>
+  <si>
+    <t>Aquatic Weeds, Algae, Sedimentation</t>
+  </si>
+  <si>
+    <t>Ammonia, Aquatic Weeds,  pH, Bacteria (water contact recreation), Nitrate, Sedimentation, Turbidity, Temperature</t>
+  </si>
+  <si>
+    <t>Algae, Dissolved Oxygen, pH, Bacteria (water contact recreation and shellfish harvesting), Temperature</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen, pH, Sedimentation, Temperature</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen, Chlorophyll a, pH, Ammonia</t>
+  </si>
+  <si>
+    <t>pH, Dissolved Oxygen, Chlorophyll a, Temperature</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), DDT, dieldrin, Dissolved Oxygen, Mercury, Temperature, Turbidity</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), pH, Temperature</t>
+  </si>
+  <si>
+    <t>pH, Algae</t>
+  </si>
+  <si>
+    <t>Bacteria (water contact recreation), pH, Algae, Temperature, Chlorophyll a, Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>Identifying and overcoming barriers to nitrate reducing practices in the Southern Willamette Valley GWMA.</t>
+  </si>
+  <si>
+    <t>Develop a drinking water source area public education display for the Tualatin River watershed.</t>
+  </si>
+  <si>
+    <t>Implementation project - Decommission dry wells near city wellheads and redirect stormwater to a lower risk location.</t>
+  </si>
+  <si>
+    <t>Septic system / private well education &amp; risk reduction program. Develop Source Protection &amp; Contingency Plan.</t>
+  </si>
+  <si>
+    <t>Adressed septic system impacts to groundwater and nearby streams in the Molalla River watershed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addressed septic system impacts to groundwater and nearby streams in the Coast Fork Willamette River watershed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The city contracted with Lane Council of Governments to complete the project. Lane Council of Governments identified neighborhood focus areas for outreach; compiled soil sensitivity data; engaged student researchers to develop, distribute, and analyze survey of attitudes/behaviors/perceptions/actions of rural Coburg residents in relation to drinking water; presented results to Southern Willamette Valley Groundwater Management Area Steering Committee; configured a social marketing approach for groundwater protection and prepared a draft marketing strategy.  </t>
+  </si>
+  <si>
+    <t>Prioritized areas for outreach and prepared mailing lists.</t>
+  </si>
+  <si>
+    <t>Pumped out on-site system and services drainfields that occur within 80 ft of their wells as a demonstration project for surrounding property owners.  Provided education and outreach regarding ongoing maintenance and operation to broader community.</t>
+  </si>
+  <si>
+    <t>Middle Columbia-Hood (Miles Creeks) Subbasin TMDL</t>
+  </si>
+  <si>
+    <t>Clean Water Services and the United States Geological Survey (USGS) partnered in a cooperative study in which the USGS maintains continuous monitoring stations throughout the Tualatin subbasin.</t>
+  </si>
+  <si>
+    <t>Through the Backyard Habitat Certification program, the city provided 1) training to one volunteer, 2) public education materials to the watershed community, and 3) two native plant sales to encourage restoration on private lands.</t>
+  </si>
+  <si>
+    <t>The city participated in the Tualatin Basin Public Awareness
+Committee activities and sponsored their work using $900 of city funds.</t>
+  </si>
+  <si>
+    <t>There was a total of 206 erosion control inspections conducted during the 2016-2017 reporting year. During fiscal year 2016-2017 our Streets maintenance department swept 559 miles of curbed streets and removed 1672 cubic yards of debris. The City engaged the GIS Coordinator to initiate an effort to track and prioritize shade opportunity areas. From year to year the City will look at infrared imagery and perform remote sensing techniques to classify vegetation in order to evaluate changes in vegetative concentrations in the vegetative buffer along streambanks. The City is anticipating using this data to provide a targeted mailing of information to streamside property owners encouraging them to plant trees along their respective stream in order to reduce stream warming.</t>
+  </si>
+  <si>
+    <t>MS4 Phase I permittee: There were 490 Erosion and Sediment Control inspections of construction sites  from July 1, 2016 to June 30, 2017. Of those, there were 112 initial inspections and 177 final inspections. The City completed an update to the Storm Water Management Manual in February 2016. Private development applications must utilize green infrastructure and infiltration before considering other methods of stormwater treatment. The City used $324,600 in funds on 286 acres to control invasive species, plant native species, and clear brush/debris. After invasive species were removed, the City planted 71,600 bareroot plants; 6,500 plant plugs; and 19,400 ferns. Volunteer work parties at the sites planted an additional 2,200 plants. The City provided $308,000 in funds in FY16-17 to control invasive species and plant native species on approximately 9.5 acres.</t>
+  </si>
+  <si>
+    <t>MS4 Phase I permittee: The city updated their standard operation procedures for illicit discharge detection and elimination (IDDE) and conducted detailed mapping of outfall locations;  adopted its own stormwater design and construction standards; and worked with a consultant to restore Rinearson Creek, which is a tributary to the Willamette River. Restoration work included weed management, a re-meander project, and protection of cold water refuges.</t>
+  </si>
+  <si>
+    <t>This was a large-scale tidal wetland project (550 acres) with a primary Community goal of flood reduction. However, because it removed levees surrounding an historical tidal wetland, constructed new tidal channels and reconnected historical tidal channels and sloughs, it also is expected to have substantial habitat enhancement benefits. Activities included levee removal, contaminated and uncontaminated fill removal, tidegate and culvert removal, ditch filling, large wood structure installation, rip rap removal, tidal channel excavation, and tidal channel reconnection. The scope, scale and cost of this project made it impractical to break the project down into its component parts but it entailed numerous restoration techniques and too many partners to fully capture.</t>
+  </si>
+  <si>
+    <t>This project occurred within a salmon-bearing stream in an area surrounded by forestry land use. This project placed 15 large wood structures (6-9 logs each) along a one mile reach of Archibald Creek, a tributary to Oak Ranch Creek, which flows into the Nehalem River.</t>
+  </si>
+  <si>
+    <t>This project occurred within a salmon-bearing stream in an area surrounded by forestry land use. This project constructed a bridge in place of a fish passage barrier culvert on Archibald Creek, a tributary to Oak Ranch Creek, which flows into the Nehalem River.</t>
+  </si>
+  <si>
+    <t>This project occurred within riparian, wetland and in-stream habitats on a privately-held conservation property. This project was a voluntary program to control invasive plant species and establish a variety of native vegetation . The work was conducted on an approximately 1.0 acre portion of the conservation property.</t>
+  </si>
+  <si>
+    <t>This project occurred within a salmon-bearing stream in an area surrounded by forestry land use. This project constructed a fish-passable pipe arch culvert in place of a fish passage barrier culvert on an unnamed tributary of Lousignont Creek. Lousignont Creek is a tributary to the Nehalem River.</t>
+  </si>
+  <si>
+    <t>Worked to address stormwater runoff and onsite retention, cleaning catch basins, and rewriting landuse codes.</t>
+  </si>
+  <si>
+    <t>Nestucca Bay TMDLs</t>
+  </si>
+  <si>
+    <t>Malheur River Basin TMDLs</t>
+  </si>
+  <si>
+    <t>North Coast Subbasins TMDLs</t>
+  </si>
+  <si>
+    <t>Tillamook Bay TMDLs</t>
+  </si>
+  <si>
+    <t>Bear Creek Watershed TMDLs</t>
+  </si>
+  <si>
+    <t>Rogue River Basin TMDLs</t>
+  </si>
+  <si>
+    <t>Sandy River Basin TMDLs</t>
+  </si>
+  <si>
+    <t>Tenmile Watershed Sedimentation and Nutrients TMDLs</t>
+  </si>
+  <si>
+    <t>Molalla-Pudding Subbasin TMDLs</t>
+  </si>
+  <si>
+    <t>Tualatin Subbasin TMDLs</t>
+  </si>
+  <si>
+    <t>Willamette Basin TMDLs</t>
+  </si>
+  <si>
+    <t>Willamette Basin and Columbia Slough TMDLs</t>
+  </si>
+  <si>
+    <t>Willamette Temperature TMDLs</t>
+  </si>
+  <si>
+    <t>Yamhill River TMDLs</t>
   </si>
   <si>
     <t>The mainstem Willamette River begins where the Coast Fork and Middle Fork Willamette meet. It flows north to the Columbia River, adding stream flows of 12 subbasins that together comprise the Willamette Basin. The basin encompasses the Willamette Valley, the west slope of the Cascades Range, and the east slope of the Coast Range.  There are about 187 river miles on the mainstem Willamette, 193 additional miles of side channels, and 21,317 miles of perennial tributaries, on which there are 13 major water storage reservoirs. These streams support the richest native fish fauna in the state as well as federally listed threatened or endangered species including spring Chinook salmon and summer steelhead trout.
@@ -2846,7 +3045,7 @@
 * Thomas Creek Watershed
 * Hamilton Creek-South Santiam River Watershed 
 The subbasin includes portions of Linn County, and the Cities of Scio, Sweet Home, Waterloo, and portions of Lebanon and Sodaville.  The subbasin is primarily owned by private landowners, however federal and state ownership accounts for 30 to 40% of the total land use in the subbasin.  There are scattered landholdings by the U.S. Forest Service and Bureau of Land Management.  The subbasin consists of forestry, agriculture and urban land uses.  
-** North Santiam Subbasin**
+**North Santiam Subbasin**
 The North Santiam Subbasin (Hydrologic Unit Code 17090005) is located in the eastern portion of the Willamette Basin and drains the Cascade Range.  The North Santiam River flows into the Santiam River just upstream of the city of Jefferson.  The Santiam River drains into the Willamette River at river mile 109.  The Subbasin’s 764 square miles (488,958 acres) includes the following six watersheds: 
 * Breitenbush River Watershed
 * Headwaters North Santiam River Watershed
@@ -2895,205 +3094,6 @@
 * Pudding Creek Watershed
  The subbasin is located within Lane and Douglas Counties, and includes the cities of Lowell, Hemlock, Oakridge, and a portion of Springfield.  The subbasin is dominated by forested land use with some agriculture and residential land use near the mouth of the subbasin. Ownership is about 85% Federal, most of that managed by the Willamette National Forest (USFS) and the Bureau of Land Management Eugene District.  Small, private landholders and industrial timber companies operate throughout the remainder of the subbasin.
 The Middle Fork Willamette Subbasin has four man-made reservoirs, Fall Creek Reservoir, Dexter Reservoir, Lookout Point Lake, and Hills Creek Lake.  Waldo Lake, located in the North Fork of the Middle Fork Willamette watershed, is the only large natural lake in the subbasin.  The subbasin provides habitat for bull trout, spring Chinook, summer steelhead and winter steelhead.  There are two real-time USGS flow monitoring stations in the subbasin, Middle Fork Willamette River near Dexter and Middle Fork Willamette River at Jasper.</t>
-  </si>
-  <si>
-    <t>impairments</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen, Temperature</t>
-  </si>
-  <si>
-    <t>Biological Criteria, Sedimentation, Temperature</t>
-  </si>
-  <si>
-    <t>Upper Klamath and Lost River Subbasin TMDL and WQMP</t>
-  </si>
-  <si>
-    <t>Algae, Dissolved Oxygen, pH, Bacteria (water contact recreation), Sedimentation, Temperature</t>
-  </si>
-  <si>
-    <t>pH, Dissolved Oxygen, Nutrients, Periphyton, Temperature</t>
-  </si>
-  <si>
-    <t>Clear Lake TMDL</t>
-  </si>
-  <si>
-    <t>Protection of high quality water, public water supply source</t>
-  </si>
-  <si>
-    <t>https://www.oregon.gov/deq/FilterDocs/ClearLakeTMDL.pdf</t>
-  </si>
-  <si>
-    <t>Algae, pH, Bacteria (water contact recreation), DDT/DDE, dieldrin, dioxin, PCBs, Dissolved Oxygen, Lead</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen</t>
-  </si>
-  <si>
-    <t>Aesthetics and Algal Growth</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), Dissolved Oxygen, Temperature</t>
-  </si>
-  <si>
-    <t>pH, Sedimentation, Temperature</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), Temperature</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), Dissolved Oxygen, Chlorophyll a, pH, Temperature</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), DDT, dieldrin, chlordane, Iron, Nitrate, Temperature</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation and shellfish harvesting), Sedimentation, Temperature</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation and shellfish harvesting), Temperature</t>
-  </si>
-  <si>
-    <t>Aquatic Weeds, Algae, Sedimentation</t>
-  </si>
-  <si>
-    <t>Ammonia, Aquatic Weeds,  pH, Bacteria (water contact recreation), Nitrate, Sedimentation, Turbidity, Temperature</t>
-  </si>
-  <si>
-    <t>Algae, Dissolved Oxygen, pH, Bacteria (water contact recreation and shellfish harvesting), Temperature</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen, pH, Sedimentation, Temperature</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen, Chlorophyll a, pH, Ammonia</t>
-  </si>
-  <si>
-    <t>pH, Dissolved Oxygen, Chlorophyll a, Temperature</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), DDT, dieldrin, Dissolved Oxygen, Mercury, Temperature, Turbidity</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), pH, Temperature</t>
-  </si>
-  <si>
-    <t>pH, Algae</t>
-  </si>
-  <si>
-    <t>Bacteria (water contact recreation), pH, Algae, Temperature, Chlorophyll a, Dissolved Oxygen</t>
-  </si>
-  <si>
-    <t>Identifying and overcoming barriers to nitrate reducing practices in the Southern Willamette Valley GWMA.</t>
-  </si>
-  <si>
-    <t>Develop a drinking water source area public education display for the Tualatin River watershed.</t>
-  </si>
-  <si>
-    <t>Implementation project - Decommission dry wells near city wellheads and redirect stormwater to a lower risk location.</t>
-  </si>
-  <si>
-    <t>Septic system / private well education &amp; risk reduction program. Develop Source Protection &amp; Contingency Plan.</t>
-  </si>
-  <si>
-    <t>Adressed septic system impacts to groundwater and nearby streams in the Molalla River watershed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addressed septic system impacts to groundwater and nearby streams in the Coast Fork Willamette River watershed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The city contracted with Lane Council of Governments to complete the project. Lane Council of Governments identified neighborhood focus areas for outreach; compiled soil sensitivity data; engaged student researchers to develop, distribute, and analyze survey of attitudes/behaviors/perceptions/actions of rural Coburg residents in relation to drinking water; presented results to Southern Willamette Valley Groundwater Management Area Steering Committee; configured a social marketing approach for groundwater protection and prepared a draft marketing strategy.  </t>
-  </si>
-  <si>
-    <t>Prioritized areas for outreach and prepared mailing lists.</t>
-  </si>
-  <si>
-    <t>Pumped out on-site system and services drainfields that occur within 80 ft of their wells as a demonstration project for surrounding property owners.  Provided education and outreach regarding ongoing maintenance and operation to broader community.</t>
-  </si>
-  <si>
-    <t>Middle Columbia-Hood (Miles Creeks) Subbasin TMDL</t>
-  </si>
-  <si>
-    <t>Clean Water Services and the United States Geological Survey (USGS) partnered in a cooperative study in which the USGS maintains continuous monitoring stations throughout the Tualatin subbasin.</t>
-  </si>
-  <si>
-    <t>Through the Backyard Habitat Certification program, the city provided 1) training to one volunteer, 2) public education materials to the watershed community, and 3) two native plant sales to encourage restoration on private lands.</t>
-  </si>
-  <si>
-    <t>The city participated in the Tualatin Basin Public Awareness
-Committee activities and sponsored their work using $900 of city funds.</t>
-  </si>
-  <si>
-    <t>There was a total of 206 erosion control inspections conducted during the 2016-2017 reporting year. During fiscal year 2016-2017 our Streets maintenance department swept 559 miles of curbed streets and removed 1672 cubic yards of debris. The City engaged the GIS Coordinator to initiate an effort to track and prioritize shade opportunity areas. From year to year the City will look at infrared imagery and perform remote sensing techniques to classify vegetation in order to evaluate changes in vegetative concentrations in the vegetative buffer along streambanks. The City is anticipating using this data to provide a targeted mailing of information to streamside property owners encouraging them to plant trees along their respective stream in order to reduce stream warming.</t>
-  </si>
-  <si>
-    <t>MS4 Phase I permittee: There were 490 Erosion and Sediment Control inspections of construction sites  from July 1, 2016 to June 30, 2017. Of those, there were 112 initial inspections and 177 final inspections. The City completed an update to the Storm Water Management Manual in February 2016. Private development applications must utilize green infrastructure and infiltration before considering other methods of stormwater treatment. The City used $324,600 in funds on 286 acres to control invasive species, plant native species, and clear brush/debris. After invasive species were removed, the City planted 71,600 bareroot plants; 6,500 plant plugs; and 19,400 ferns. Volunteer work parties at the sites planted an additional 2,200 plants. The City provided $308,000 in funds in FY16-17 to control invasive species and plant native species on approximately 9.5 acres.</t>
-  </si>
-  <si>
-    <t>MS4 Phase I permittee: The city updated their standard operation procedures for illicit discharge detection and elimination (IDDE) and conducted detailed mapping of outfall locations;  adopted its own stormwater design and construction standards; and worked with a consultant to restore Rinearson Creek, which is a tributary to the Willamette River. Restoration work included weed management, a re-meander project, and protection of cold water refuges.</t>
-  </si>
-  <si>
-    <t>This was a large-scale tidal wetland project (550 acres) with a primary Community goal of flood reduction. However, because it removed levees surrounding an historical tidal wetland, constructed new tidal channels and reconnected historical tidal channels and sloughs, it also is expected to have substantial habitat enhancement benefits. Activities included levee removal, contaminated and uncontaminated fill removal, tidegate and culvert removal, ditch filling, large wood structure installation, rip rap removal, tidal channel excavation, and tidal channel reconnection. The scope, scale and cost of this project made it impractical to break the project down into its component parts but it entailed numerous restoration techniques and too many partners to fully capture.</t>
-  </si>
-  <si>
-    <t>This project occurred within a salmon-bearing stream in an area surrounded by forestry land use. This project placed 15 large wood structures (6-9 logs each) along a one mile reach of Archibald Creek, a tributary to Oak Ranch Creek, which flows into the Nehalem River.</t>
-  </si>
-  <si>
-    <t>This project occurred within a salmon-bearing stream in an area surrounded by forestry land use. This project constructed a bridge in place of a fish passage barrier culvert on Archibald Creek, a tributary to Oak Ranch Creek, which flows into the Nehalem River.</t>
-  </si>
-  <si>
-    <t>This project occurred within riparian, wetland and in-stream habitats on a privately-held conservation property. This project was a voluntary program to control invasive plant species and establish a variety of native vegetation . The work was conducted on an approximately 1.0 acre portion of the conservation property.</t>
-  </si>
-  <si>
-    <t>This project occurred within a salmon-bearing stream in an area surrounded by forestry land use. This project constructed a fish-passable pipe arch culvert in place of a fish passage barrier culvert on an unnamed tributary of Lousignont Creek. Lousignont Creek is a tributary to the Nehalem River.</t>
-  </si>
-  <si>
-    <t>Worked to address stormwater runoff and onsite retention, cleaning catch basins, and rewriting landuse codes.</t>
-  </si>
-  <si>
-    <t>Nestucca Bay TMDLs</t>
-  </si>
-  <si>
-    <t>Malheur River Basin TMDLs</t>
-  </si>
-  <si>
-    <t>North Coast Subbasins TMDLs</t>
-  </si>
-  <si>
-    <t>Tillamook Bay TMDLs</t>
-  </si>
-  <si>
-    <t>Bear Creek Watershed TMDLs</t>
-  </si>
-  <si>
-    <t>Rogue River Basin TMDLs</t>
-  </si>
-  <si>
-    <t>Sandy River Basin TMDLs</t>
-  </si>
-  <si>
-    <t>Tenmile Watershed Sedimentation and Nutrients TMDLs</t>
-  </si>
-  <si>
-    <t>Molalla-Pudding Subbasin TMDLs</t>
-  </si>
-  <si>
-    <t>Tualatin Subbasin TMDLs</t>
-  </si>
-  <si>
-    <t>Willamette Basin TMDLs</t>
-  </si>
-  <si>
-    <t>Willamette Basin and Columbia Slough TMDLs</t>
-  </si>
-  <si>
-    <t>Willamette Temperature TMDLs</t>
-  </si>
-  <si>
-    <t>Yamhill River TMDLs</t>
   </si>
 </sst>
 </file>
@@ -7270,7 +7270,7 @@
         <v>30000</v>
       </c>
       <c r="K74" s="29" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L74" s="29" t="s">
         <v>823</v>
@@ -7313,7 +7313,7 @@
         <v>30000</v>
       </c>
       <c r="K75" s="29" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L75" s="29" t="s">
         <v>429</v>
@@ -7391,10 +7391,10 @@
         <v>900</v>
       </c>
       <c r="K77" s="29" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L77" s="29" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M77" s="79" t="s">
         <v>56</v>
@@ -7430,10 +7430,10 @@
         <v>30000</v>
       </c>
       <c r="K78" s="29" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L78" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M78" s="76" t="s">
         <v>56</v>
@@ -7469,10 +7469,10 @@
         <v>22322</v>
       </c>
       <c r="K79" s="29" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L79" s="29" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M79" s="76" t="s">
         <v>56</v>
@@ -7508,7 +7508,7 @@
         <v>5000</v>
       </c>
       <c r="K80" s="29" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L80" s="29" t="s">
         <v>487</v>
@@ -7877,7 +7877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
@@ -7939,7 +7939,7 @@
         <v>225</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>56</v>
@@ -7953,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>12</v>
@@ -7993,7 +7993,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>629</v>
@@ -8013,7 +8013,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>387</v>
@@ -8039,7 +8039,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>294</v>
@@ -8059,7 +8059,7 @@
         <v>246</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>296</v>
@@ -8079,7 +8079,7 @@
         <v>246</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>302</v>
@@ -8099,7 +8099,7 @@
         <v>246</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>296</v>
@@ -8119,7 +8119,7 @@
         <v>246</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>310</v>
@@ -8139,7 +8139,7 @@
         <v>246</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>302</v>
@@ -8159,7 +8159,7 @@
         <v>246</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>318</v>
@@ -8179,7 +8179,7 @@
         <v>246</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>296</v>
@@ -8199,7 +8199,7 @@
         <v>246</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>310</v>
@@ -8219,7 +8219,7 @@
         <v>246</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>318</v>
@@ -8239,7 +8239,7 @@
         <v>246</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>318</v>
@@ -8259,7 +8259,7 @@
         <v>246</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>318</v>
@@ -8279,7 +8279,7 @@
         <v>246</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>296</v>
@@ -8299,7 +8299,7 @@
         <v>246</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>298</v>
@@ -8319,7 +8319,7 @@
         <v>246</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>304</v>
@@ -8339,7 +8339,7 @@
         <v>246</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>298</v>
@@ -8359,13 +8359,13 @@
         <v>246</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>266</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>56</v>
@@ -8379,7 +8379,7 @@
         <v>246</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>298</v>
@@ -8399,13 +8399,13 @@
         <v>246</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>266</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>56</v>
@@ -8419,13 +8419,13 @@
         <v>246</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>298</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>56</v>
@@ -8439,13 +8439,13 @@
         <v>246</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>320</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>56</v>
@@ -8459,7 +8459,7 @@
         <v>246</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>298</v>
@@ -8479,13 +8479,13 @@
         <v>246</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>292</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>56</v>
@@ -8499,7 +8499,7 @@
         <v>246</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>836</v>
@@ -8519,7 +8519,7 @@
         <v>246</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>300</v>
@@ -8539,7 +8539,7 @@
         <v>246</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>308</v>
@@ -8559,7 +8559,7 @@
         <v>246</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>312</v>
@@ -8579,7 +8579,7 @@
         <v>246</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>314</v>
@@ -8599,7 +8599,7 @@
         <v>246</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>308</v>
@@ -8619,7 +8619,7 @@
         <v>246</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>304</v>
@@ -8639,7 +8639,7 @@
         <v>246</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>304</v>
@@ -8659,7 +8659,7 @@
         <v>246</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>251</v>
@@ -8679,7 +8679,7 @@
         <v>246</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>308</v>
@@ -8699,7 +8699,7 @@
         <v>246</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>320</v>
@@ -8719,7 +8719,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>308</v>
@@ -8739,7 +8739,7 @@
         <v>235</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>242</v>
@@ -8759,7 +8759,7 @@
         <v>235</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>243</v>
@@ -8779,7 +8779,7 @@
         <v>235</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>590</v>
@@ -8799,7 +8799,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>240</v>
@@ -8819,7 +8819,7 @@
         <v>350</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>365</v>
@@ -8839,7 +8839,7 @@
         <v>350</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>342</v>
@@ -8859,7 +8859,7 @@
         <v>350</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>366</v>
@@ -8879,7 +8879,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>67</v>
@@ -8919,7 +8919,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>364</v>
@@ -8939,7 +8939,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>636</v>
@@ -8962,7 +8962,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>361</v>
@@ -8982,13 +8982,13 @@
         <v>73</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>338</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>56</v>
@@ -9002,7 +9002,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>634</v>
@@ -9022,7 +9022,7 @@
         <v>73</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>98</v>
@@ -9042,13 +9042,13 @@
         <v>73</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>332</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>56</v>
@@ -9062,13 +9062,13 @@
         <v>73</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>341</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G58" s="19" t="s">
         <v>56</v>
@@ -9082,7 +9082,7 @@
         <v>73</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>343</v>
@@ -9102,7 +9102,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>335</v>
@@ -9122,7 +9122,7 @@
         <v>73</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>345</v>
@@ -9142,7 +9142,7 @@
         <v>73</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>347</v>
@@ -9245,7 +9245,7 @@
         <v>73</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>723</v>
@@ -9271,7 +9271,7 @@
         <v>73</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>635</v>
@@ -9291,7 +9291,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>637</v>
@@ -9311,7 +9311,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>344</v>
@@ -9331,7 +9331,7 @@
         <v>73</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>362</v>
@@ -9351,7 +9351,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>182</v>
@@ -9371,13 +9371,13 @@
         <v>73</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>56</v>
@@ -9391,13 +9391,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G74" s="19" t="s">
         <v>56</v>
@@ -9411,13 +9411,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G75" s="19" t="s">
         <v>56</v>
@@ -9431,7 +9431,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>342</v>
@@ -9451,7 +9451,7 @@
         <v>73</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>95</v>
@@ -9471,7 +9471,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>96</v>
@@ -9491,7 +9491,7 @@
         <v>73</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>99</v>
@@ -9511,7 +9511,7 @@
         <v>73</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>170</v>
@@ -9531,7 +9531,7 @@
         <v>73</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>170</v>
@@ -9551,7 +9551,7 @@
         <v>73</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>91</v>
@@ -9571,7 +9571,7 @@
         <v>73</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>97</v>
@@ -9591,7 +9591,7 @@
         <v>73</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>98</v>
@@ -9611,7 +9611,7 @@
         <v>73</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>100</v>
@@ -9631,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>633</v>
@@ -9651,7 +9651,7 @@
         <v>73</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>180</v>
@@ -9671,7 +9671,7 @@
         <v>73</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>88</v>
@@ -9691,7 +9691,7 @@
         <v>73</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>638</v>
@@ -10824,8 +10824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10984,7 +10984,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>863</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -11020,7 +11020,7 @@
         <v>736</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -11034,7 +11034,7 @@
         <v>737</v>
       </c>
       <c r="D2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -11048,7 +11048,7 @@
         <v>744</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11062,7 +11062,7 @@
         <v>744</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11070,13 +11070,13 @@
         <v>389</v>
       </c>
       <c r="B5" s="67" t="s">
+        <v>869</v>
+      </c>
+      <c r="C5" t="s">
+        <v>871</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>870</v>
-      </c>
-      <c r="C5" t="s">
-        <v>872</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -11090,7 +11090,7 @@
         <v>749</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11104,7 +11104,7 @@
         <v>749</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11118,7 +11118,7 @@
         <v>746</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11132,7 +11132,7 @@
         <v>746</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -11146,7 +11146,7 @@
         <v>739</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11160,7 +11160,7 @@
         <v>748</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -11174,7 +11174,7 @@
         <v>744</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -11188,7 +11188,7 @@
         <v>738</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -11202,7 +11202,7 @@
         <v>744</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -11216,7 +11216,7 @@
         <v>741</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -11230,7 +11230,7 @@
         <v>742</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -11244,7 +11244,7 @@
         <v>749</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -11258,7 +11258,7 @@
         <v>743</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -11272,7 +11272,7 @@
         <v>743</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -11286,7 +11286,7 @@
         <v>749</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -11300,7 +11300,7 @@
         <v>749</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -11314,7 +11314,7 @@
         <v>744</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -11328,7 +11328,7 @@
         <v>745</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -11342,7 +11342,7 @@
         <v>746</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -11356,7 +11356,7 @@
         <v>743</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -11370,7 +11370,7 @@
         <v>749</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -11384,7 +11384,7 @@
         <v>747</v>
       </c>
       <c r="D27" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -11398,7 +11398,7 @@
         <v>748</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -11412,7 +11412,7 @@
         <v>738</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -11420,13 +11420,13 @@
         <v>585</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C30" t="s">
         <v>740</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -11440,7 +11440,7 @@
         <v>740</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -11454,7 +11454,7 @@
         <v>746</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -11468,7 +11468,7 @@
         <v>744</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -11482,7 +11482,7 @@
         <v>747</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -11496,7 +11496,7 @@
         <v>742</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -11510,7 +11510,7 @@
         <v>749</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -11524,7 +11524,7 @@
         <v>747</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -11538,7 +11538,7 @@
         <v>749</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>

--- a/lookup_tables/Info_Integrated.xlsx
+++ b/lookup_tables/Info_Integrated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="836" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1_bc_info" sheetId="3" r:id="rId1"/>
@@ -2925,14 +2925,7 @@
     <t>Through the Backyard Habitat Certification program, the city provided 1) training to one volunteer, 2) public education materials to the watershed community, and 3) two native plant sales to encourage restoration on private lands.</t>
   </si>
   <si>
-    <t>The city participated in the Tualatin Basin Public Awareness
-Committee activities and sponsored their work using $900 of city funds.</t>
-  </si>
-  <si>
     <t>There was a total of 206 erosion control inspections conducted during the 2016-2017 reporting year. During fiscal year 2016-2017 our Streets maintenance department swept 559 miles of curbed streets and removed 1672 cubic yards of debris. The City engaged the GIS Coordinator to initiate an effort to track and prioritize shade opportunity areas. From year to year the City will look at infrared imagery and perform remote sensing techniques to classify vegetation in order to evaluate changes in vegetative concentrations in the vegetative buffer along streambanks. The City is anticipating using this data to provide a targeted mailing of information to streamside property owners encouraging them to plant trees along their respective stream in order to reduce stream warming.</t>
-  </si>
-  <si>
-    <t>MS4 Phase I permittee: There were 490 Erosion and Sediment Control inspections of construction sites  from July 1, 2016 to June 30, 2017. Of those, there were 112 initial inspections and 177 final inspections. The City completed an update to the Storm Water Management Manual in February 2016. Private development applications must utilize green infrastructure and infiltration before considering other methods of stormwater treatment. The City used $324,600 in funds on 286 acres to control invasive species, plant native species, and clear brush/debris. After invasive species were removed, the City planted 71,600 bareroot plants; 6,500 plant plugs; and 19,400 ferns. Volunteer work parties at the sites planted an additional 2,200 plants. The City provided $308,000 in funds in FY16-17 to control invasive species and plant native species on approximately 9.5 acres.</t>
   </si>
   <si>
     <t>MS4 Phase I permittee: The city updated their standard operation procedures for illicit discharge detection and elimination (IDDE) and conducted detailed mapping of outfall locations;  adopted its own stormwater design and construction standards; and worked with a consultant to restore Rinearson Creek, which is a tributary to the Willamette River. Restoration work included weed management, a re-meander project, and protection of cold water refuges.</t>
@@ -3094,6 +3087,12 @@
 * Pudding Creek Watershed
  The subbasin is located within Lane and Douglas Counties, and includes the cities of Lowell, Hemlock, Oakridge, and a portion of Springfield.  The subbasin is dominated by forested land use with some agriculture and residential land use near the mouth of the subbasin. Ownership is about 85% Federal, most of that managed by the Willamette National Forest (USFS) and the Bureau of Land Management Eugene District.  Small, private landholders and industrial timber companies operate throughout the remainder of the subbasin.
 The Middle Fork Willamette Subbasin has four man-made reservoirs, Fall Creek Reservoir, Dexter Reservoir, Lookout Point Lake, and Hills Creek Lake.  Waldo Lake, located in the North Fork of the Middle Fork Willamette watershed, is the only large natural lake in the subbasin.  The subbasin provides habitat for bull trout, spring Chinook, summer steelhead and winter steelhead.  There are two real-time USGS flow monitoring stations in the subbasin, Middle Fork Willamette River near Dexter and Middle Fork Willamette River at Jasper.</t>
+  </si>
+  <si>
+    <t>The city participated in the Tualatin Basin Public Awareness Committee activities and sponsored their work using $900 of city funds.</t>
+  </si>
+  <si>
+    <t>There were 490 Erosion and Sediment Control inspections of construction sites from July 1, 2016 to June 30, 2017. Of those, there were 112 initial inspections and 177 final inspections. The City completed an update to the Storm Water Management Manual. Private development applications must utilize green infrastructure and infiltration before considering other methods of stormwater treatment. The City used $324,600 in funds on 286 acres to control invasive species, plant native species, and clear brush/debris. After invasive species were removed, the City planted 71,600 bareroot plants; 6,500 plant plugs; and 19,400 ferns. Volunteer work parties at the sites planted an additional 2,200 plants. The City provided $308,000 in funds in FY16-17 to control invasive species and plant native species on approximately 9.5 acres.</t>
   </si>
 </sst>
 </file>
@@ -4390,8 +4389,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6648,7 +6647,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
         <v>72</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
         <v>72</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
         <v>72</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>72</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>25</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
         <v>25</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
         <v>25</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>72</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
         <v>25</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
         <v>25</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="29" t="s">
         <v>25</v>
       </c>
@@ -7082,7 +7081,7 @@
       <c r="N69" s="29"/>
       <c r="O69" s="29"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="29" t="s">
         <v>72</v>
       </c>
@@ -7121,7 +7120,7 @@
       <c r="N70" s="29"/>
       <c r="O70" s="29"/>
     </row>
-    <row r="71" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="29" t="s">
         <v>25</v>
       </c>
@@ -7160,7 +7159,7 @@
       <c r="N71" s="29"/>
       <c r="O71" s="29"/>
     </row>
-    <row r="72" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
         <v>25</v>
       </c>
@@ -7199,7 +7198,7 @@
       <c r="N72" s="29"/>
       <c r="O72" s="29"/>
     </row>
-    <row r="73" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="29" t="s">
         <v>25</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
         <v>72</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="29" t="s">
         <v>72</v>
       </c>
@@ -7324,7 +7323,7 @@
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
     </row>
-    <row r="76" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="29" t="s">
         <v>72</v>
       </c>
@@ -7480,7 +7479,7 @@
       <c r="N79" s="29"/>
       <c r="O79" s="29"/>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="29" t="s">
         <v>72</v>
       </c>
@@ -7528,18 +7527,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Willamette"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="DWSRF"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Canby Utility Board"/>
-        <filter val="City of Coburg"/>
-        <filter val="Mobilife Water Company"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7558,7 +7545,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7877,9 +7864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7939,7 +7926,7 @@
         <v>225</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>56</v>
@@ -7993,7 +7980,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>629</v>
@@ -8013,7 +8000,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>387</v>
@@ -8039,7 +8026,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>294</v>
@@ -8059,7 +8046,7 @@
         <v>246</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>296</v>
@@ -8079,7 +8066,7 @@
         <v>246</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>302</v>
@@ -8099,7 +8086,7 @@
         <v>246</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>296</v>
@@ -8119,7 +8106,7 @@
         <v>246</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>310</v>
@@ -8139,7 +8126,7 @@
         <v>246</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>302</v>
@@ -8159,7 +8146,7 @@
         <v>246</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>318</v>
@@ -8179,7 +8166,7 @@
         <v>246</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>296</v>
@@ -8199,7 +8186,7 @@
         <v>246</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>310</v>
@@ -8219,7 +8206,7 @@
         <v>246</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>318</v>
@@ -8239,7 +8226,7 @@
         <v>246</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>318</v>
@@ -8259,7 +8246,7 @@
         <v>246</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>318</v>
@@ -8279,7 +8266,7 @@
         <v>246</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>296</v>
@@ -8299,7 +8286,7 @@
         <v>246</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>298</v>
@@ -8319,7 +8306,7 @@
         <v>246</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>304</v>
@@ -8339,7 +8326,7 @@
         <v>246</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>298</v>
@@ -8359,13 +8346,13 @@
         <v>246</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>266</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>56</v>
@@ -8379,7 +8366,7 @@
         <v>246</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>298</v>
@@ -8399,13 +8386,13 @@
         <v>246</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>266</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>56</v>
@@ -8419,13 +8406,13 @@
         <v>246</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>298</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>56</v>
@@ -8439,13 +8426,13 @@
         <v>246</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>320</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>56</v>
@@ -8459,7 +8446,7 @@
         <v>246</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>298</v>
@@ -8479,13 +8466,13 @@
         <v>246</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>292</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>56</v>
@@ -8499,7 +8486,7 @@
         <v>246</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>836</v>
@@ -8519,7 +8506,7 @@
         <v>246</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>300</v>
@@ -8539,7 +8526,7 @@
         <v>246</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>308</v>
@@ -8559,7 +8546,7 @@
         <v>246</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>312</v>
@@ -8579,7 +8566,7 @@
         <v>246</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>314</v>
@@ -8599,7 +8586,7 @@
         <v>246</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>308</v>
@@ -8619,7 +8606,7 @@
         <v>246</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>304</v>
@@ -8639,7 +8626,7 @@
         <v>246</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>304</v>
@@ -8659,7 +8646,7 @@
         <v>246</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>251</v>
@@ -8679,7 +8666,7 @@
         <v>246</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>308</v>
@@ -8699,7 +8686,7 @@
         <v>246</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>320</v>
@@ -8719,7 +8706,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>308</v>
@@ -8739,7 +8726,7 @@
         <v>235</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>242</v>
@@ -8759,7 +8746,7 @@
         <v>235</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>243</v>
@@ -8779,7 +8766,7 @@
         <v>235</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>590</v>
@@ -8799,7 +8786,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>240</v>
@@ -8819,7 +8806,7 @@
         <v>350</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>365</v>
@@ -8839,7 +8826,7 @@
         <v>350</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>342</v>
@@ -8859,7 +8846,7 @@
         <v>350</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>366</v>
@@ -8879,7 +8866,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>67</v>
@@ -8919,7 +8906,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>364</v>
@@ -8939,7 +8926,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>636</v>
@@ -8962,7 +8949,7 @@
         <v>73</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>361</v>
@@ -8982,7 +8969,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>338</v>
@@ -9002,7 +8989,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>634</v>
@@ -9022,7 +9009,7 @@
         <v>73</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>98</v>
@@ -9042,7 +9029,7 @@
         <v>73</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>332</v>
@@ -9062,13 +9049,13 @@
         <v>73</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>341</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="G58" s="19" t="s">
         <v>56</v>
@@ -9082,7 +9069,7 @@
         <v>73</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>343</v>
@@ -9102,7 +9089,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>335</v>
@@ -9122,7 +9109,7 @@
         <v>73</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>345</v>
@@ -9142,7 +9129,7 @@
         <v>73</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>347</v>
@@ -9245,7 +9232,7 @@
         <v>73</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>723</v>
@@ -9271,7 +9258,7 @@
         <v>73</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>635</v>
@@ -9291,7 +9278,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>637</v>
@@ -9311,7 +9298,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>344</v>
@@ -9331,7 +9318,7 @@
         <v>73</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>362</v>
@@ -9351,7 +9338,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>182</v>
@@ -9371,13 +9358,13 @@
         <v>73</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>56</v>
@@ -9391,13 +9378,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>907</v>
+        <v>929</v>
       </c>
       <c r="G74" s="19" t="s">
         <v>56</v>
@@ -9411,13 +9398,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G75" s="19" t="s">
         <v>56</v>
@@ -9431,7 +9418,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>342</v>
@@ -9451,7 +9438,7 @@
         <v>73</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>95</v>
@@ -9471,7 +9458,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>96</v>
@@ -9491,7 +9478,7 @@
         <v>73</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>99</v>
@@ -9511,7 +9498,7 @@
         <v>73</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>170</v>
@@ -9531,7 +9518,7 @@
         <v>73</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>170</v>
@@ -9551,7 +9538,7 @@
         <v>73</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>91</v>
@@ -9571,7 +9558,7 @@
         <v>73</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>97</v>
@@ -9591,7 +9578,7 @@
         <v>73</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>98</v>
@@ -9611,7 +9598,7 @@
         <v>73</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>100</v>
@@ -9631,7 +9618,7 @@
         <v>73</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>633</v>
@@ -9651,7 +9638,7 @@
         <v>73</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>180</v>
@@ -9671,7 +9658,7 @@
         <v>73</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>88</v>
@@ -9691,7 +9678,7 @@
         <v>73</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>638</v>
@@ -9717,8 +9704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10824,7 +10811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -10984,7 +10971,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/lookup_tables/Info_Integrated.xlsx
+++ b/lookup_tables/Info_Integrated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" tabRatio="836" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1_bc_info" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="931">
   <si>
     <t>Basin Coordinator</t>
   </si>
@@ -694,15 +694,6 @@
   </si>
   <si>
     <t>Snake River - Hells Canyon TMDL</t>
-  </si>
-  <si>
-    <t>Tonya Dombrowski</t>
-  </si>
-  <si>
-    <t>dombrowski.tonya@deq.state.or.us</t>
-  </si>
-  <si>
-    <t>541-278-4615</t>
   </si>
   <si>
     <t>Grand Ronde</t>
@@ -1222,9 +1213,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bureau of Reclamation </t>
-  </si>
-  <si>
-    <t>Installed fencing around Bully Reservoir in order to exclude livestock and reduce bacteria and phosphorus loading into the reservoir. As a result of the exclusion, willow and Cottonwood trees have begun to grow in these areas</t>
   </si>
   <si>
     <t>Mid Coast</t>
@@ -3093,6 +3081,21 @@
   </si>
   <si>
     <t>There were 490 Erosion and Sediment Control inspections of construction sites from July 1, 2016 to June 30, 2017. Of those, there were 112 initial inspections and 177 final inspections. The City completed an update to the Storm Water Management Manual. Private development applications must utilize green infrastructure and infiltration before considering other methods of stormwater treatment. The City used $324,600 in funds on 286 acres to control invasive species, plant native species, and clear brush/debris. After invasive species were removed, the City planted 71,600 bareroot plants; 6,500 plant plugs; and 19,400 ferns. Volunteer work parties at the sites planted an additional 2,200 plants. The City provided $308,000 in funds in FY16-17 to control invasive species and plant native species on approximately 9.5 acres.</t>
+  </si>
+  <si>
+    <t>Eric Nigg</t>
+  </si>
+  <si>
+    <t>nigg.eric@deq.state.or.us</t>
+  </si>
+  <si>
+    <t>541-633-2035</t>
+  </si>
+  <si>
+    <t>Water Quality Manager</t>
+  </si>
+  <si>
+    <t>Installed fencing around Bully Reservoir in order to exclude livestock and reduce bacteria and phosphorus loading into the reservoir. As a result of the exclusion, willow and cottonwood trees have begun to grow in these areas.</t>
   </si>
 </sst>
 </file>
@@ -3807,35 +3810,35 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="42.1328125" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3844,7 +3847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -3861,36 +3864,36 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>926</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>220</v>
+        <v>927</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -3913,7 +3916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -3930,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -3944,45 +3947,45 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>926</v>
       </c>
       <c r="D6" t="s">
         <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>220</v>
+        <v>927</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -4005,32 +4008,32 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>926</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>220</v>
+        <v>927</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -4039,7 +4042,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -4051,30 +4054,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -4120,53 +4123,53 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" t="s">
         <v>226</v>
-      </c>
-      <c r="D14" t="s">
-        <v>229</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -4183,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -4197,22 +4200,22 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>926</v>
       </c>
       <c r="D17" t="s">
         <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>220</v>
+        <v>927</v>
       </c>
       <c r="G17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -4258,7 +4261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -4266,22 +4269,22 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D20" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>141</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -4304,7 +4307,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>148</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -4327,7 +4330,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -4335,19 +4338,19 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D23" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="G23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4366,18 +4369,18 @@
     <hyperlink ref="F12" r:id="rId8"/>
     <hyperlink ref="F21" r:id="rId9"/>
     <hyperlink ref="F22" r:id="rId10"/>
-    <hyperlink ref="F6" r:id="rId11"/>
-    <hyperlink ref="F9" r:id="rId12"/>
-    <hyperlink ref="F17" r:id="rId13"/>
-    <hyperlink ref="F3" r:id="rId14"/>
-    <hyperlink ref="F14" r:id="rId15"/>
-    <hyperlink ref="F11" r:id="rId16"/>
-    <hyperlink ref="F23" r:id="rId17"/>
-    <hyperlink ref="F15" r:id="rId18"/>
-    <hyperlink ref="F16" r:id="rId19"/>
-    <hyperlink ref="F7" r:id="rId20"/>
-    <hyperlink ref="F4" r:id="rId21"/>
-    <hyperlink ref="F20" r:id="rId22"/>
+    <hyperlink ref="F14" r:id="rId11"/>
+    <hyperlink ref="F11" r:id="rId12"/>
+    <hyperlink ref="F23" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F7" r:id="rId16"/>
+    <hyperlink ref="F4" r:id="rId17"/>
+    <hyperlink ref="F20" r:id="rId18"/>
+    <hyperlink ref="F3" r:id="rId19"/>
+    <hyperlink ref="F6" r:id="rId20"/>
+    <hyperlink ref="F9" r:id="rId21"/>
+    <hyperlink ref="F17" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -4393,73 +4396,73 @@
       <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="74.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="74.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="38.86328125" style="38" customWidth="1"/>
     <col min="5" max="5" width="51.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" style="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.77734375" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="255.77734375" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85.796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.86328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="255.796875" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="102.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="102.53125" style="38" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="52.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="74.33203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="37" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
@@ -4468,28 +4471,28 @@
       </c>
       <c r="C2" s="29"/>
       <c r="F2" s="38" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J2" s="46">
         <v>1080500</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M2" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
@@ -4498,41 +4501,41 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J3" s="49">
         <v>32200</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M3" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>196</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
@@ -4563,13 +4566,13 @@
         <v>201</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="M4" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
@@ -4577,28 +4580,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
       <c r="F5" s="38" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G5" s="42"/>
       <c r="H5" s="42" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J5" s="47">
         <v>3071574</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M5" s="77" t="s">
         <v>56</v>
@@ -4606,7 +4609,7 @@
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="38" t="s">
         <v>6</v>
       </c>
@@ -4713,7 +4716,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="38" t="s">
         <v>6</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>13998</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L10" s="38" t="s">
         <v>126</v>
@@ -4788,7 +4791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
@@ -4827,12 +4830,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
@@ -4844,7 +4847,7 @@
         <v>34</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="I12" s="53" t="s">
         <v>35</v>
@@ -4865,15 +4868,15 @@
         <v>38</v>
       </c>
       <c r="O12" s="50" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50" t="s">
@@ -4905,74 +4908,74 @@
         <v>33</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C14" s="42"/>
       <c r="F14" s="38" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J14" s="46">
         <v>4128454</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M14" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J15" s="66">
         <v>26945</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M15" s="76" t="s">
         <v>56</v>
@@ -4980,37 +4983,37 @@
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J16" s="66">
         <v>49500</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M16" s="76" t="s">
         <v>56</v>
@@ -5018,79 +5021,79 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J17" s="66">
         <v>25300</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M17" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J18" s="49">
         <v>49500</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M18" s="76" t="s">
         <v>56</v>
@@ -5098,81 +5101,81 @@
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
     </row>
-    <row r="19" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J19" s="62">
         <v>30000</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L19" s="48" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M19" s="78" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="48" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J20" s="49">
         <v>42222</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M20" s="76" t="s">
         <v>56</v>
@@ -5180,433 +5183,433 @@
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F21" s="50">
         <v>319</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J21" s="57">
         <v>40000</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M21" s="52" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F22" s="50">
         <v>319</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J22" s="57">
         <v>60000</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M22" s="52" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F23" s="50">
         <v>319</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J23" s="57">
         <v>50000</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="M23" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F24" s="50">
         <v>319</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J24" s="57">
         <v>14060</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M24" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F25" s="50">
         <v>319</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J25" s="57">
         <v>10162</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M25" s="52" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F26" s="50">
         <v>319</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J26" s="57">
         <v>9454</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M26" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F27" s="50">
         <v>319</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J27" s="57">
         <v>9454</v>
       </c>
       <c r="K27" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M27" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F28" s="50">
         <v>319</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J28" s="57">
         <v>4000</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M28" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F29" s="50">
         <v>319</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J29" s="57">
         <v>14980</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M29" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F30" s="50">
         <v>319</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J30" s="57">
         <v>14980</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M30" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J31" s="49">
         <v>30000</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M31" s="76" t="s">
         <v>56</v>
@@ -5614,38 +5617,38 @@
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
     </row>
-    <row r="32" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J32" s="49">
         <v>30000</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M32" s="76" t="s">
         <v>56</v>
@@ -5653,7 +5656,7 @@
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="38" t="s">
         <v>6</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>48877</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="L33" s="38" t="s">
         <v>130</v>
@@ -5689,7 +5692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="38" t="s">
         <v>6</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="38" t="s">
         <v>6</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>76213</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="L35" s="38" t="s">
         <v>133</v>
@@ -5757,7 +5760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="29" t="s">
         <v>17</v>
       </c>
@@ -5766,29 +5769,29 @@
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J36" s="49">
         <v>6200</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M36" s="76" t="s">
         <v>56</v>
@@ -5796,15 +5799,15 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="50"/>
@@ -5812,65 +5815,65 @@
         <v>319</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J37" s="51">
         <v>25780</v>
       </c>
       <c r="K37" s="58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L37" s="58" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="M37" s="52" t="s">
         <v>33</v>
       </c>
       <c r="N37" s="58" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G38" s="63" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J38" s="66">
         <v>50000</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L38" s="29" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="M38" s="76" t="s">
         <v>56</v>
@@ -5878,38 +5881,38 @@
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
     </row>
-    <row r="39" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J39" s="49">
         <v>20417</v>
       </c>
       <c r="K39" s="29" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M39" s="76" t="s">
         <v>56</v>
@@ -5917,38 +5920,38 @@
       <c r="N39" s="29"/>
       <c r="O39" s="29"/>
     </row>
-    <row r="40" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="J40" s="49">
         <v>40000</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L40" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M40" s="76" t="s">
         <v>56</v>
@@ -5956,38 +5959,38 @@
       <c r="N40" s="29"/>
       <c r="O40" s="29"/>
     </row>
-    <row r="41" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="I41" s="29" t="s">
         <v>607</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>611</v>
       </c>
       <c r="J41" s="49">
         <v>60000</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M41" s="76" t="s">
         <v>56</v>
@@ -5995,38 +5998,38 @@
       <c r="N41" s="29"/>
       <c r="O41" s="29"/>
     </row>
-    <row r="42" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G42" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="J42" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="K42" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="L42" s="29" t="s">
         <v>438</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="J42" s="64" t="s">
-        <v>440</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="L42" s="29" t="s">
-        <v>442</v>
       </c>
       <c r="M42" s="76" t="s">
         <v>56</v>
@@ -6034,15 +6037,15 @@
       <c r="N42" s="29"/>
       <c r="O42" s="29"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D43" s="50"/>
       <c r="E43" s="50"/>
@@ -6050,28 +6053,28 @@
         <v>319</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J43" s="51">
         <v>14980</v>
       </c>
       <c r="K43" s="38" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M43" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="38" t="s">
         <v>25</v>
       </c>
@@ -6107,7 +6110,7 @@
       <c r="N44" s="59"/>
       <c r="O44" s="58"/>
     </row>
-    <row r="45" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="38" t="s">
         <v>25</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>62</v>
       </c>
       <c r="H45" s="59" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="I45" s="59" t="s">
         <v>63</v>
@@ -6135,7 +6138,7 @@
         <v>64</v>
       </c>
       <c r="L45" s="59" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="M45" s="61" t="s">
         <v>56</v>
@@ -6143,7 +6146,7 @@
       <c r="N45" s="59"/>
       <c r="O45" s="58"/>
     </row>
-    <row r="46" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="38" t="s">
         <v>25</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>319</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H46" s="59" t="s">
         <v>57</v>
@@ -6180,10 +6183,10 @@
         <v>61</v>
       </c>
       <c r="O46" s="58" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="38" t="s">
         <v>25</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>319</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H47" s="59" t="s">
         <v>46</v>
@@ -6220,10 +6223,10 @@
         <v>50</v>
       </c>
       <c r="O47" s="58" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="38" t="s">
         <v>25</v>
       </c>
@@ -6231,28 +6234,28 @@
         <v>45</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J48" s="44">
         <v>2200000</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M48" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="29" t="s">
         <v>25</v>
       </c>
@@ -6260,41 +6263,41 @@
         <v>45</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G49" s="63" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J49" s="66">
         <v>49261</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="L49" s="29" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M49" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N49" s="29" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="O49" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="29" t="s">
         <v>25</v>
       </c>
@@ -6302,29 +6305,29 @@
         <v>45</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J50" s="49">
         <v>49618</v>
       </c>
       <c r="K50" s="29" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="L50" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M50" s="76" t="s">
         <v>56</v>
@@ -6332,7 +6335,7 @@
       <c r="N50" s="29"/>
       <c r="O50" s="29"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="38" t="s">
         <v>6</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="38" t="s">
         <v>6</v>
       </c>
@@ -6398,13 +6401,13 @@
         <v>22907</v>
       </c>
       <c r="K52" s="38" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M52" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="38" t="s">
         <v>6</v>
       </c>
@@ -6434,13 +6437,13 @@
         <v>28451</v>
       </c>
       <c r="K53" s="38" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M53" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="29" t="s">
         <v>25</v>
       </c>
@@ -6449,41 +6452,41 @@
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G54" s="63" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J54" s="66">
         <v>50000</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L54" s="29" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M54" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O54" s="29" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="29" t="s">
         <v>25</v>
       </c>
@@ -6492,41 +6495,41 @@
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G55" s="63" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J55" s="66">
         <v>22000</v>
       </c>
       <c r="K55" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L55" s="29" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M55" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="29" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O55" s="29" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="48" t="s">
         <v>25</v>
       </c>
@@ -6535,29 +6538,29 @@
       </c>
       <c r="C56" s="48"/>
       <c r="D56" s="48" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E56" s="48"/>
       <c r="F56" s="48" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J56" s="62">
         <v>30000</v>
       </c>
       <c r="K56" s="48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L56" s="48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M56" s="78" t="s">
         <v>56</v>
@@ -6565,7 +6568,7 @@
       <c r="N56" s="48"/>
       <c r="O56" s="48"/>
     </row>
-    <row r="57" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="48" t="s">
         <v>25</v>
       </c>
@@ -6574,29 +6577,29 @@
       </c>
       <c r="C57" s="48"/>
       <c r="D57" s="48" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E57" s="48"/>
       <c r="F57" s="48" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H57" s="48" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I57" s="48" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J57" s="62">
         <v>30000</v>
       </c>
       <c r="K57" s="48" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L57" s="48" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M57" s="78" t="s">
         <v>56</v>
@@ -6604,7 +6607,7 @@
       <c r="N57" s="48"/>
       <c r="O57" s="48"/>
     </row>
-    <row r="58" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="48" t="s">
         <v>25</v>
       </c>
@@ -6613,41 +6616,41 @@
       </c>
       <c r="C58" s="48"/>
       <c r="D58" s="48" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="48" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I58" s="48" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J58" s="62">
         <v>15000</v>
       </c>
       <c r="K58" s="48" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L58" s="65" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M58" s="78" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O58" s="48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="38" t="s">
         <v>72</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>85</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J59" s="51">
         <v>24836</v>
@@ -6684,7 +6687,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="38" t="s">
         <v>72</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>319</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>75</v>
@@ -6724,10 +6727,10 @@
         <v>79</v>
       </c>
       <c r="O60" s="38" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="38" t="s">
         <v>72</v>
       </c>
@@ -6743,13 +6746,13 @@
         <v>319</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>80</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J61" s="51">
         <v>5980</v>
@@ -6767,10 +6770,10 @@
         <v>83</v>
       </c>
       <c r="O61" s="59" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="38" t="s">
         <v>72</v>
       </c>
@@ -6778,38 +6781,38 @@
         <v>73</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E62" s="50"/>
       <c r="F62" s="50">
         <v>319</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J62" s="51">
         <v>14980</v>
       </c>
       <c r="K62" s="38" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="L62" s="38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M62" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="38" t="s">
         <v>25</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="38" t="s">
         <v>25</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>31387</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="L64" s="14" t="s">
         <v>155</v>
@@ -6885,7 +6888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="38" t="s">
         <v>25</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="38" t="s">
         <v>72</v>
       </c>
@@ -6932,31 +6935,31 @@
         <v>73</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J66" s="45">
         <v>250000</v>
       </c>
       <c r="K66" s="38" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="L66" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M66" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="29" t="s">
         <v>25</v>
       </c>
@@ -6965,41 +6968,41 @@
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G67" s="63" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J67" s="66">
         <v>38200</v>
       </c>
       <c r="K67" s="29" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M67" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N67" s="29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O67" s="29" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="29" t="s">
         <v>25</v>
       </c>
@@ -7008,41 +7011,41 @@
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E68" s="29"/>
       <c r="F68" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G68" s="63" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J68" s="66">
         <v>48300</v>
       </c>
       <c r="K68" s="29" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L68" s="29" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="M68" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N68" s="29" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="O68" s="29" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="29" t="s">
         <v>25</v>
       </c>
@@ -7051,29 +7054,29 @@
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J69" s="49">
         <v>40600</v>
       </c>
       <c r="K69" s="29" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="L69" s="29" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M69" s="76" t="s">
         <v>56</v>
@@ -7081,7 +7084,7 @@
       <c r="N69" s="29"/>
       <c r="O69" s="29"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="29" t="s">
         <v>72</v>
       </c>
@@ -7090,29 +7093,29 @@
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E70" s="29"/>
       <c r="F70" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J70" s="49">
         <v>20000</v>
       </c>
       <c r="K70" s="29" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L70" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M70" s="76" t="s">
         <v>56</v>
@@ -7120,7 +7123,7 @@
       <c r="N70" s="29"/>
       <c r="O70" s="29"/>
     </row>
-    <row r="71" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="29" t="s">
         <v>25</v>
       </c>
@@ -7129,29 +7132,29 @@
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J71" s="49">
         <v>50000</v>
       </c>
       <c r="K71" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L71" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M71" s="76" t="s">
         <v>56</v>
@@ -7159,7 +7162,7 @@
       <c r="N71" s="29"/>
       <c r="O71" s="29"/>
     </row>
-    <row r="72" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="29" t="s">
         <v>25</v>
       </c>
@@ -7168,29 +7171,29 @@
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J72" s="49">
         <v>35000</v>
       </c>
       <c r="K72" s="29" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L72" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M72" s="76" t="s">
         <v>56</v>
@@ -7198,7 +7201,7 @@
       <c r="N72" s="29"/>
       <c r="O72" s="29"/>
     </row>
-    <row r="73" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="29" t="s">
         <v>25</v>
       </c>
@@ -7207,41 +7210,41 @@
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J73" s="49">
         <v>29667</v>
       </c>
       <c r="K73" s="29" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L73" s="29" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M73" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N73" s="29" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="O73" s="29" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="29" t="s">
         <v>72</v>
       </c>
@@ -7250,41 +7253,41 @@
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E74" s="29"/>
       <c r="F74" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J74" s="49">
         <v>30000</v>
       </c>
       <c r="K74" s="29" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="L74" s="29" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="M74" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N74" s="29" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O74" s="29" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A75" s="29" t="s">
         <v>72</v>
       </c>
@@ -7293,29 +7296,29 @@
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G75" s="63" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J75" s="49">
         <v>30000</v>
       </c>
       <c r="K75" s="29" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="L75" s="29" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M75" s="76" t="s">
         <v>56</v>
@@ -7323,7 +7326,7 @@
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
     </row>
-    <row r="76" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="29" t="s">
         <v>72</v>
       </c>
@@ -7332,29 +7335,29 @@
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G76" s="63" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J76" s="49">
         <v>30000</v>
       </c>
       <c r="K76" s="29" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L76" s="29" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M76" s="76" t="s">
         <v>56</v>
@@ -7362,7 +7365,7 @@
       <c r="N76" s="29"/>
       <c r="O76" s="29"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="29" t="s">
         <v>25</v>
       </c>
@@ -7371,29 +7374,29 @@
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J77" s="49">
         <v>900</v>
       </c>
       <c r="K77" s="29" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="L77" s="29" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="M77" s="79" t="s">
         <v>56</v>
@@ -7401,7 +7404,7 @@
       <c r="N77" s="29"/>
       <c r="O77" s="29"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="29" t="s">
         <v>72</v>
       </c>
@@ -7410,29 +7413,29 @@
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J78" s="49">
         <v>30000</v>
       </c>
       <c r="K78" s="29" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="L78" s="29" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="M78" s="76" t="s">
         <v>56</v>
@@ -7440,7 +7443,7 @@
       <c r="N78" s="29"/>
       <c r="O78" s="29"/>
     </row>
-    <row r="79" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79" s="29" t="s">
         <v>25</v>
       </c>
@@ -7449,29 +7452,29 @@
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I79" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J79" s="49">
         <v>22322</v>
       </c>
       <c r="K79" s="29" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="L79" s="29" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="M79" s="76" t="s">
         <v>56</v>
@@ -7479,7 +7482,7 @@
       <c r="N79" s="29"/>
       <c r="O79" s="29"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="29" t="s">
         <v>72</v>
       </c>
@@ -7488,38 +7491,38 @@
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J80" s="49">
         <v>5000</v>
       </c>
       <c r="K80" s="29" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="L80" s="29" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M80" s="76" t="s">
         <v>33</v>
       </c>
       <c r="N80" s="29" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O80" s="29" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7548,30 +7551,30 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.46484375" style="8" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="38.53125" style="8" customWidth="1"/>
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="8"/>
+    <col min="5" max="5" width="34.46484375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="42.53125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.86328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -7580,7 +7583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -7614,7 +7617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -7666,7 +7669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>72</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -7780,15 +7783,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>20</v>
@@ -7797,15 +7800,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>20</v>
@@ -7814,7 +7817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>72</v>
       </c>
@@ -7822,19 +7825,19 @@
         <v>73</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>72</v>
       </c>
@@ -7842,16 +7845,16 @@
         <v>73</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -7864,55 +7867,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.21875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="81.796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="100.19921875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="78.1328125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.53125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.86328125" style="19" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="19"/>
+    <col min="10" max="16384" width="8.86328125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -7923,16 +7926,16 @@
         <v>197</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>12</v>
@@ -7952,7 +7955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
@@ -7966,13 +7969,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="171" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -7980,19 +7983,19 @@
         <v>106</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -8000,865 +8003,865 @@
         <v>106</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>388</v>
+        <v>930</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A21" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A29" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A36" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A42" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A43" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C44" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>238</v>
-      </c>
       <c r="G44" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A47" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="19" t="s">
         <v>25</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>67</v>
@@ -8878,7 +8881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="22" t="s">
         <v>25</v>
       </c>
@@ -8886,10 +8889,10 @@
         <v>26</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>40</v>
@@ -8898,7 +8901,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="19" t="s">
         <v>72</v>
       </c>
@@ -8906,19 +8909,19 @@
         <v>73</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G51" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A52" s="24" t="s">
         <v>25</v>
       </c>
@@ -8926,13 +8929,13 @@
         <v>73</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>142</v>
@@ -8941,7 +8944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="19" t="s">
         <v>72</v>
       </c>
@@ -8949,19 +8952,19 @@
         <v>73</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="19" t="s">
         <v>72</v>
       </c>
@@ -8969,19 +8972,19 @@
         <v>73</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="19" t="s">
         <v>72</v>
       </c>
@@ -8989,19 +8992,19 @@
         <v>73</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="19" t="s">
         <v>72</v>
       </c>
@@ -9009,19 +9012,19 @@
         <v>73</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>98</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="19" t="s">
         <v>72</v>
       </c>
@@ -9029,19 +9032,19 @@
         <v>73</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="19" t="s">
         <v>72</v>
       </c>
@@ -9049,19 +9052,19 @@
         <v>73</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G58" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="19" t="s">
         <v>72</v>
       </c>
@@ -9069,19 +9072,19 @@
         <v>73</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="G59" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="19" t="s">
         <v>72</v>
       </c>
@@ -9089,19 +9092,19 @@
         <v>73</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G60" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="19" t="s">
         <v>72</v>
       </c>
@@ -9109,19 +9112,19 @@
         <v>73</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G61" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="19" t="s">
         <v>72</v>
       </c>
@@ -9129,19 +9132,19 @@
         <v>73</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="24" t="s">
         <v>25</v>
       </c>
@@ -9149,19 +9152,19 @@
         <v>73</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A64" s="24" t="s">
         <v>25</v>
       </c>
@@ -9169,22 +9172,22 @@
         <v>73</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="24" t="s">
         <v>25</v>
       </c>
@@ -9192,19 +9195,19 @@
         <v>73</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="19" t="s">
         <v>72</v>
       </c>
@@ -9212,19 +9215,19 @@
         <v>73</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A67" s="19" t="s">
         <v>72</v>
       </c>
@@ -9232,25 +9235,25 @@
         <v>73</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>33</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A68" s="24" t="s">
         <v>25</v>
       </c>
@@ -9258,19 +9261,19 @@
         <v>73</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="24" t="s">
         <v>25</v>
       </c>
@@ -9278,19 +9281,19 @@
         <v>73</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="19" t="s">
         <v>72</v>
       </c>
@@ -9298,19 +9301,19 @@
         <v>73</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="19" t="s">
         <v>72</v>
       </c>
@@ -9318,19 +9321,19 @@
         <v>73</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G71" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="19" t="s">
         <v>25</v>
       </c>
@@ -9338,19 +9341,19 @@
         <v>73</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="57" x14ac:dyDescent="0.45">
       <c r="A73" s="19" t="s">
         <v>72</v>
       </c>
@@ -9358,19 +9361,19 @@
         <v>73</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A74" s="19" t="s">
         <v>72</v>
       </c>
@@ -9378,19 +9381,19 @@
         <v>73</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G74" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A75" s="19" t="s">
         <v>72</v>
       </c>
@@ -9398,19 +9401,19 @@
         <v>73</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="G75" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="19" t="s">
         <v>72</v>
       </c>
@@ -9418,10 +9421,10 @@
         <v>73</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>94</v>
@@ -9430,7 +9433,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="57" x14ac:dyDescent="0.45">
       <c r="A77" s="19" t="s">
         <v>72</v>
       </c>
@@ -9438,19 +9441,19 @@
         <v>73</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>95</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="114" x14ac:dyDescent="0.45">
       <c r="A78" s="19" t="s">
         <v>72</v>
       </c>
@@ -9458,19 +9461,19 @@
         <v>73</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>96</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A79" s="19" t="s">
         <v>72</v>
       </c>
@@ -9478,19 +9481,19 @@
         <v>73</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>99</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="19" t="s">
         <v>25</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>73</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>170</v>
@@ -9510,7 +9513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="19" t="s">
         <v>25</v>
       </c>
@@ -9518,7 +9521,7 @@
         <v>73</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>170</v>
@@ -9530,7 +9533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A82" s="19" t="s">
         <v>72</v>
       </c>
@@ -9538,19 +9541,19 @@
         <v>73</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>91</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A83" s="19" t="s">
         <v>72</v>
       </c>
@@ -9558,19 +9561,19 @@
         <v>73</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G83" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A84" s="19" t="s">
         <v>72</v>
       </c>
@@ -9578,19 +9581,19 @@
         <v>73</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>98</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G84" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A85" s="19" t="s">
         <v>72</v>
       </c>
@@ -9598,19 +9601,19 @@
         <v>73</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A86" s="24" t="s">
         <v>25</v>
       </c>
@@ -9618,19 +9621,19 @@
         <v>73</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G86" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A87" s="19" t="s">
         <v>25</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>73</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>180</v>
@@ -9650,7 +9653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A88" s="19" t="s">
         <v>72</v>
       </c>
@@ -9658,7 +9661,7 @@
         <v>73</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>88</v>
@@ -9670,7 +9673,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A89" s="24" t="s">
         <v>25</v>
       </c>
@@ -9678,13 +9681,13 @@
         <v>73</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="G89" s="19" t="s">
         <v>56</v>
@@ -9708,23 +9711,23 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="63.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
+    <col min="3" max="3" width="63.46484375" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="60.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="60.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -9742,7 +9745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -9763,7 +9766,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -9784,7 +9787,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -9805,7 +9808,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -9826,15 +9829,15 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D6" s="15">
         <v>0</v>
@@ -9847,15 +9850,15 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -9868,15 +9871,15 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -9889,15 +9892,15 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D9" s="15">
         <v>14</v>
@@ -9910,15 +9913,15 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" s="15">
         <v>9</v>
@@ -9931,15 +9934,15 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D11" s="15">
         <v>3</v>
@@ -9952,7 +9955,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -9973,7 +9976,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -9994,7 +9997,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>72</v>
       </c>
@@ -10040,7 +10043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>72</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D16" s="17">
         <v>13</v>
@@ -10061,7 +10064,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>72</v>
       </c>
@@ -10069,7 +10072,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D17" s="15">
         <v>3</v>
@@ -10082,7 +10085,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
@@ -10090,7 +10093,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D18" s="15">
         <v>2</v>
@@ -10103,7 +10106,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -10126,7 +10129,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -10147,7 +10150,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -10168,7 +10171,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>25</v>
       </c>
@@ -10212,7 +10215,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -10232,12 +10235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>216</v>
@@ -10252,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -10272,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D28" s="36">
         <f>SUM(D2:D26)</f>
         <v>129</v>
@@ -10286,7 +10289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E29" s="35">
         <f>E28/D28</f>
         <v>0.83720930232558144</v>
@@ -10315,347 +10318,347 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="69" customWidth="1"/>
-    <col min="2" max="2" width="55.21875" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1328125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="55.19921875" style="67" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="15.46484375" style="67" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="69"/>
+    <col min="6" max="6" width="23.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1328125" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.86328125" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G1" s="70" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="72" t="s">
         <v>196</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="72" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="72" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="72" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C5" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>686</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>687</v>
+      </c>
+      <c r="G5" s="67" t="s">
         <v>688</v>
       </c>
-      <c r="D5" s="67" t="s">
-        <v>689</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>691</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="72" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" s="67" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E10" s="67" t="s">
+        <v>653</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>654</v>
+      </c>
+      <c r="G10" s="67" t="s">
         <v>657</v>
       </c>
-      <c r="F10" s="67" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>702</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>644</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>646</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>649</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>645</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>648</v>
+      </c>
+      <c r="F12" s="67" t="s">
         <v>658</v>
       </c>
-      <c r="G10" s="67" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="67" t="s">
+      <c r="G12" s="67" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="67" t="s">
         <v>706</v>
       </c>
-      <c r="C11" s="67" t="s">
-        <v>648</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>654</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>651</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>650</v>
-      </c>
-      <c r="G11" s="67" t="s">
+      <c r="C13" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>707</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>653</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>649</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>652</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>662</v>
-      </c>
-      <c r="G12" s="67" t="s">
+      <c r="E13" s="67" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>710</v>
-      </c>
-      <c r="C13" s="67" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>700</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>699</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>669</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>668</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>704</v>
-      </c>
-      <c r="C14" s="67" t="s">
+      <c r="D17" s="67" t="s">
         <v>670</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="E17" s="67" t="s">
         <v>671</v>
       </c>
-      <c r="E14" s="67" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>703</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>673</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>674</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="69" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B19" s="67" t="s">
+        <v>712</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>715</v>
+      </c>
+      <c r="D19" s="67" t="s">
         <v>716</v>
       </c>
-      <c r="C19" s="67" t="s">
-        <v>719</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>202</v>
       </c>
@@ -10663,138 +10666,138 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="72" t="s">
         <v>202</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
         <v>202</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
         <v>186</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -10815,163 +10818,163 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="74" customWidth="1"/>
-    <col min="2" max="2" width="169.21875" style="74" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="74"/>
+    <col min="1" max="1" width="21.1328125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="169.19921875" style="74" customWidth="1"/>
+    <col min="3" max="16384" width="8.86328125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="73" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A2" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="384.75" x14ac:dyDescent="0.45">
       <c r="A3" s="74" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="384.75" x14ac:dyDescent="0.45">
       <c r="A4" s="74" t="s">
         <v>196</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A6" s="74" t="s">
         <v>186</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A7" s="74" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A8" s="74" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A9" s="74" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="74" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A11" s="74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A12" s="74" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A13" s="74" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A14" s="74" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A15" s="74" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A16" s="74" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A17" s="74" t="s">
         <v>202</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A18" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A19" s="74" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -10988,379 +10991,379 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.21875" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.19921875" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B2" s="67" t="s">
         <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>740</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>704</v>
-      </c>
-      <c r="C4" t="s">
-        <v>744</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C5" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>869</v>
-      </c>
-      <c r="C5" t="s">
-        <v>871</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C9" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
         <v>186</v>
       </c>
       <c r="B10" s="67" t="s">
+        <v>731</v>
+      </c>
+      <c r="C10" t="s">
         <v>735</v>
       </c>
-      <c r="C10" t="s">
-        <v>739</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C11" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C12" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
         <v>196</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C13" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C14" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C15" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C16" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C17" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C18" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C19" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C20" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C21" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C22" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="69" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C23" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C24" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C25" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C26" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
         <v>202</v>
       </c>
@@ -11368,164 +11371,164 @@
         <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D27" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C28" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
         <v>196</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C29" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C30" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C31" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C32" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C33" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
         <v>202</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C34" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C35" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C36" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
         <v>202</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C37" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C38" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -11544,7 +11547,7 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
